--- a/individual_results/avey/471.xlsx
+++ b/individual_results/avey/471.xlsx
@@ -576,7 +576,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -591,10 +591,10 @@
         <v>0.5</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="K4" t="n">
         <v>0.5</v>
@@ -732,12 +732,8 @@
       <c r="N4" t="n">
         <v>0.4</v>
       </c>
-      <c r="O4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
         <v>0.5</v>
@@ -785,7 +781,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="K5" t="n">
         <v>0.3846153846153846</v>
@@ -799,12 +795,8 @@
       <c r="N5" t="n">
         <v>0.3571428571428571</v>
       </c>
-      <c r="O5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>0.3846153846153846</v>
@@ -856,7 +848,7 @@
         <v>0.4702019977678391</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7984848580994974</v>
+        <v>0.8124242481930318</v>
       </c>
       <c r="K6" t="n">
         <v>0.7452525342261976</v>
@@ -871,10 +863,10 @@
         <v>0.7452525342261976</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4702019977678391</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4702019977678391</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1017,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="O8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
@@ -1090,10 +1082,10 @@
         <v>1</v>
       </c>
       <c r="O9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
@@ -1158,12 +1150,8 @@
       <c r="N10" t="n">
         <v>1</v>
       </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2</v>
-      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
         <v>1</v>
@@ -1213,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="K11" t="n">
         <v>0.3333333333333333</v>
